--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_38.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3642600.554096527</v>
+        <v>3639813.976132435</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10143323.72412388</v>
+        <v>10143323.72412387</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>405071.1348788529</v>
+        <v>405071.1348788528</v>
       </c>
     </row>
     <row r="9">
@@ -671,7 +671,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>129.2877909430956</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>144.0576027644701</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.3848909959486</v>
       </c>
       <c r="T2" t="n">
         <v>222.6908602868995</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,16 +735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>42.73220117795578</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>118.3455344422001</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>159.8350691069752</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -896,10 +896,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>263.2420339516675</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>263.2420339516675</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
-        <v>205.6802163062339</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052851883</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>206.9118586999128</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>55.32041365667335</v>
       </c>
       <c r="W5" t="n">
-        <v>263.2420339516675</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1.627753714067466</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>87.69233988828965</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>97.08446202703759</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1035,13 +1035,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>105.3830043755917</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1063,10 +1063,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>14.41402108404469</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>82.68702246598923</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>77.14804664098541</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>98.77665074446901</v>
+        <v>401.3250585280386</v>
       </c>
       <c r="H8" t="n">
-        <v>333.5968416124919</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>53.34061566741189</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1209,22 +1209,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>137.2252494732821</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0364270978827</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1257,28 +1257,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>81.09131237727991</v>
       </c>
       <c r="S9" t="n">
-        <v>104.9105819423114</v>
+        <v>165.9791078289958</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.9269402297496</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9211787872032</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>64.60378191116996</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>226.8455587225985</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>28.42642542249488</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>94.16611066722847</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C11" t="n">
         <v>361.6806399040582</v>
@@ -1376,13 +1376,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E11" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F11" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G11" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H11" t="n">
         <v>279.970840137595</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T11" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U11" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V11" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W11" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X11" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y11" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="12">
@@ -1525,13 +1525,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>176.239728314988</v>
+        <v>110.2191634985373</v>
       </c>
       <c r="C13" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316784</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>161.9498010102176</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.8617379250046</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>63.58849972413424</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S13" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T13" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5931996814711</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V13" t="n">
-        <v>243.8105716589317</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W13" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X13" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y13" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C14" t="n">
         <v>361.6806399040582</v>
@@ -1613,13 +1613,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E14" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F14" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G14" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H14" t="n">
         <v>279.970840137595</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T14" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U14" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V14" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W14" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X14" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y14" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>176.239728314988</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C16" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316784</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>79.00265633481118</v>
+        <v>6.211787206393738</v>
       </c>
       <c r="H16" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>63.58849972413424</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S16" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T16" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5931996814711</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V16" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W16" t="n">
-        <v>282.9307464696417</v>
+        <v>282.9307464696416</v>
       </c>
       <c r="X16" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y16" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C17" t="n">
         <v>361.6806399040582</v>
@@ -1850,13 +1850,13 @@
         <v>351.0907897537336</v>
       </c>
       <c r="E17" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F17" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G17" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H17" t="n">
         <v>279.970840137595</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T17" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U17" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V17" t="n">
-        <v>324.1600066031856</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W17" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X17" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>176.239728314988</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C19" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316784</v>
       </c>
       <c r="D19" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>142.8417107796199</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G19" t="n">
-        <v>147.9309504906666</v>
+        <v>161.9498010102175</v>
       </c>
       <c r="H19" t="n">
-        <v>136.8617379250046</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S19" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T19" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U19" t="n">
-        <v>282.5931996814711</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V19" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W19" t="n">
-        <v>282.9307464696417</v>
+        <v>52.1748327836393</v>
       </c>
       <c r="X19" t="n">
         <v>222.1174035220878</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="20">
@@ -2078,22 +2078,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>379.1415897965313</v>
+        <v>379.1415897965312</v>
       </c>
       <c r="C20" t="n">
-        <v>361.6806399040582</v>
+        <v>361.6806399040583</v>
       </c>
       <c r="D20" t="n">
         <v>351.0907897537336</v>
       </c>
       <c r="E20" t="n">
-        <v>378.3381182053125</v>
+        <v>378.3381182053124</v>
       </c>
       <c r="F20" t="n">
         <v>403.2837938747621</v>
       </c>
       <c r="G20" t="n">
-        <v>406.2510241458083</v>
+        <v>406.2510241458082</v>
       </c>
       <c r="H20" t="n">
         <v>279.970840137595</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387022</v>
       </c>
       <c r="T20" t="n">
         <v>195.6048049705248</v>
       </c>
       <c r="U20" t="n">
-        <v>247.316644120697</v>
+        <v>247.3166441206969</v>
       </c>
       <c r="V20" t="n">
-        <v>324.1600066031862</v>
+        <v>324.1600066031855</v>
       </c>
       <c r="W20" t="n">
-        <v>345.6487168504637</v>
+        <v>345.6487168504636</v>
       </c>
       <c r="X20" t="n">
         <v>366.1388488115197</v>
       </c>
       <c r="Y20" t="n">
-        <v>382.6456867891043</v>
+        <v>382.6456867891042</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>176.239728314988</v>
+        <v>176.2397283149879</v>
       </c>
       <c r="C22" t="n">
-        <v>163.6545692316785</v>
+        <v>163.6545692316784</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G22" t="n">
-        <v>161.9498010102176</v>
+        <v>161.9498010102175</v>
       </c>
       <c r="H22" t="n">
-        <v>132.1269181270578</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>63.58849972413424</v>
+        <v>63.58849972413415</v>
       </c>
       <c r="S22" t="n">
         <v>177.7462364915096</v>
       </c>
       <c r="T22" t="n">
-        <v>213.8897425958125</v>
+        <v>213.8897425958124</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5931996814711</v>
+        <v>282.593199681471</v>
       </c>
       <c r="V22" t="n">
-        <v>248.5453914568787</v>
+        <v>248.5453914568786</v>
       </c>
       <c r="W22" t="n">
-        <v>282.9307464696417</v>
+        <v>215.6428232581822</v>
       </c>
       <c r="X22" t="n">
-        <v>222.1174035220878</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>214.9924014851455</v>
+        <v>214.9924014851454</v>
       </c>
     </row>
     <row r="23">
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>81.0203387338703</v>
+        <v>81.02033873387033</v>
       </c>
       <c r="T23" t="n">
-        <v>195.6048049705248</v>
+        <v>195.6048049705249</v>
       </c>
       <c r="U23" t="n">
         <v>247.316644120697</v>
       </c>
       <c r="V23" t="n">
-        <v>324.1600066031862</v>
+        <v>324.1600066031856</v>
       </c>
       <c r="W23" t="n">
         <v>345.6487168504637</v>
@@ -2476,19 +2476,19 @@
         <v>176.239728314988</v>
       </c>
       <c r="C25" t="n">
-        <v>7.916555427853508</v>
+        <v>163.6545692316786</v>
       </c>
       <c r="D25" t="n">
-        <v>145.023221151263</v>
+        <v>145.0232211512631</v>
       </c>
       <c r="E25" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>161.9498010102176</v>
+        <v>149.053497986011</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>63.58849972413424</v>
+        <v>63.58849972413427</v>
       </c>
       <c r="S25" t="n">
-        <v>177.7462364915096</v>
+        <v>177.7462364915097</v>
       </c>
       <c r="T25" t="n">
         <v>213.8897425958125</v>
@@ -2539,7 +2539,7 @@
         <v>282.9307464696417</v>
       </c>
       <c r="X25" t="n">
-        <v>222.1174035220878</v>
+        <v>222.1174035220879</v>
       </c>
       <c r="Y25" t="n">
         <v>214.9924014851455</v>
@@ -2552,25 +2552,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634807</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206831</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.930370072262</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417116</v>
+        <v>406.8760457417097</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8432760127578</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H26" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081976</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T26" t="n">
-        <v>199.1970568374743</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9088959876464</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701351</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174132</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.7311006784692</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560557</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2710,25 +2710,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819374</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>83.0773672326534</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>12.99855402706266</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771671</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584591</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627619</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484206</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
-        <v>252.1376433238281</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520949</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>54.79181287784859</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>105.3798824585327</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2968,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>91.23885045891222</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5420528771669</v>
+        <v>81.37259901119292</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>105.3798824585327</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -3439,10 +3439,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>167.4628038871176</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,22 +3500,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634805</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710075</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206829</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722617</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127575</v>
       </c>
       <c r="H38" t="n">
         <v>283.5630920045443</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081956</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876462</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3569,7 +3569,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560535</v>
       </c>
     </row>
     <row r="39">
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>29.55527856873887</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>17.91582343699941</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3706,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127574</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045442</v>
+        <v>283.5630920045444</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081947</v>
+        <v>84.61259060081969</v>
       </c>
       <c r="T41" t="n">
-        <v>199.197056837474</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9088959876462</v>
+        <v>250.9088959876464</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701347</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174128</v>
+        <v>349.2409687174131</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784689</v>
+        <v>369.7311006784691</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819372</v>
+        <v>16.03945994319741</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>23.94516103140698</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584588</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627617</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1854515484202</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>252.1376433238279</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4037,7 +4037,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.2409687174124</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
         <v>369.731100678469</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>54.79181287784859</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.6267707433221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
       <c r="C2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
       <c r="D2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
       <c r="E2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
       <c r="F2" t="n">
-        <v>155.7915758433533</v>
+        <v>286.9604071117565</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J2" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K2" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573684</v>
       </c>
       <c r="L2" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142364</v>
       </c>
       <c r="M2" t="n">
-        <v>563.3128681098024</v>
+        <v>563.3128681098028</v>
       </c>
       <c r="N2" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369336</v>
       </c>
       <c r="O2" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885148</v>
       </c>
       <c r="P2" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="Q2" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R2" t="n">
-        <v>907.4554057415451</v>
+        <v>907.4554057415462</v>
       </c>
       <c r="S2" t="n">
-        <v>907.4554057415451</v>
+        <v>772.7231926143254</v>
       </c>
       <c r="T2" t="n">
-        <v>682.5151428254849</v>
+        <v>547.7829296982652</v>
       </c>
       <c r="U2" t="n">
-        <v>428.6381209881796</v>
+        <v>293.90590786096</v>
       </c>
       <c r="V2" t="n">
-        <v>428.6381209881796</v>
+        <v>293.90590786096</v>
       </c>
       <c r="W2" t="n">
-        <v>428.6381209881796</v>
+        <v>293.90590786096</v>
       </c>
       <c r="X2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
       <c r="Y2" t="n">
-        <v>162.7370765925568</v>
+        <v>293.90590786096</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344.4468016585116</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="C3" t="n">
-        <v>169.9937723773846</v>
+        <v>329.2312273828401</v>
       </c>
       <c r="D3" t="n">
-        <v>21.05936271613333</v>
+        <v>180.2968177215889</v>
       </c>
       <c r="E3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I3" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683216</v>
       </c>
       <c r="K3" t="n">
-        <v>99.34055552906332</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="L3" t="n">
-        <v>339.9440834239258</v>
+        <v>158.2210505399124</v>
       </c>
       <c r="M3" t="n">
-        <v>600.5536970360757</v>
+        <v>418.8306641520626</v>
       </c>
       <c r="N3" t="n">
-        <v>600.5536970360757</v>
+        <v>679.4402777642129</v>
       </c>
       <c r="O3" t="n">
-        <v>860.9667611285678</v>
+        <v>785.316696249021</v>
       </c>
       <c r="P3" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271197</v>
       </c>
       <c r="Q3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="R3" t="n">
-        <v>1052.968135806666</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="S3" t="n">
-        <v>1009.804296232974</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="T3" t="n">
-        <v>807.8192386480496</v>
+        <v>1052.968135806668</v>
       </c>
       <c r="U3" t="n">
-        <v>579.5989098902544</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="V3" t="n">
-        <v>344.4468016585116</v>
+        <v>824.7478070488723</v>
       </c>
       <c r="W3" t="n">
-        <v>344.4468016585116</v>
+        <v>705.2068631678621</v>
       </c>
       <c r="X3" t="n">
-        <v>344.4468016585116</v>
+        <v>705.2068631678621</v>
       </c>
       <c r="Y3" t="n">
-        <v>344.4468016585116</v>
+        <v>497.4465644029082</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="C4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="D4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="E4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="F4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="G4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="H4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="I4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="J4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="K4" t="n">
-        <v>21.05936271613333</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="L4" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360305</v>
       </c>
       <c r="M4" t="n">
-        <v>100.1098670955239</v>
+        <v>100.1098670955241</v>
       </c>
       <c r="N4" t="n">
-        <v>150.0877739486497</v>
+        <v>150.08777394865</v>
       </c>
       <c r="O4" t="n">
-        <v>180.2341645716483</v>
+        <v>180.2341645716486</v>
       </c>
       <c r="P4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="Q4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="R4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="S4" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706538</v>
       </c>
       <c r="T4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="U4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="V4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="W4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="X4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
       <c r="Y4" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613335</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>787.0670914110462</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1660470154225</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="D5" t="n">
-        <v>255.2650026197987</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="E5" t="n">
-        <v>255.2650026197987</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="F5" t="n">
-        <v>248.3195018705952</v>
+        <v>302.324267115626</v>
       </c>
       <c r="G5" t="n">
-        <v>232.9556418667252</v>
+        <v>286.960407111756</v>
       </c>
       <c r="H5" t="n">
-        <v>25.19784761800399</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800399</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="J5" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573686</v>
+        <v>135.7250809573681</v>
       </c>
       <c r="L5" t="n">
-        <v>330.254671414237</v>
+        <v>330.2546714142359</v>
       </c>
       <c r="M5" t="n">
-        <v>563.3128681098038</v>
+        <v>563.3128681098019</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369349</v>
+        <v>785.5101925369323</v>
       </c>
       <c r="O5" t="n">
-        <v>950.1371873885166</v>
+        <v>950.1371873885133</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.96813580667</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
-        <v>1052.96813580667</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.96813580667</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.96813580667</v>
+        <v>843.9662583320063</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.96813580667</v>
+        <v>619.0259954159462</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.96813580667</v>
+        <v>365.1489735786409</v>
       </c>
       <c r="V5" t="n">
-        <v>1052.96813580667</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="W5" t="n">
-        <v>787.0670914110462</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="X5" t="n">
-        <v>787.0670914110462</v>
+        <v>309.2697678648295</v>
       </c>
       <c r="Y5" t="n">
-        <v>787.0670914110462</v>
+        <v>309.2697678648295</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0593627161334</v>
+        <v>109.6374838154158</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0593627161334</v>
+        <v>24.95018035683204</v>
       </c>
       <c r="K6" t="n">
-        <v>99.34055552906489</v>
+        <v>158.2210505399121</v>
       </c>
       <c r="L6" t="n">
-        <v>339.9440834239277</v>
+        <v>158.2210505399121</v>
       </c>
       <c r="M6" t="n">
-        <v>600.5536970360786</v>
+        <v>418.8306641520618</v>
       </c>
       <c r="N6" t="n">
-        <v>600.5536970360786</v>
+        <v>679.4402777642116</v>
       </c>
       <c r="O6" t="n">
-        <v>860.9667611285711</v>
+        <v>939.8533418567035</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.96813580667</v>
+        <v>977.318070927118</v>
       </c>
       <c r="Q6" t="n">
-        <v>1052.96813580667</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="R6" t="n">
-        <v>1052.96813580667</v>
+        <v>954.9030226480419</v>
       </c>
       <c r="S6" t="n">
-        <v>1052.96813580667</v>
+        <v>782.4144152406828</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.96813580667</v>
+        <v>782.4144152406828</v>
       </c>
       <c r="U6" t="n">
-        <v>824.7478070488748</v>
+        <v>554.1940864828877</v>
       </c>
       <c r="V6" t="n">
-        <v>589.5956988171322</v>
+        <v>319.0419782511449</v>
       </c>
       <c r="W6" t="n">
-        <v>335.3583420889306</v>
+        <v>319.0419782511449</v>
       </c>
       <c r="X6" t="n">
-        <v>127.5068418833977</v>
+        <v>319.0419782511449</v>
       </c>
       <c r="Y6" t="n">
-        <v>21.0593627161334</v>
+        <v>111.281679486191</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="C7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="D7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="E7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="F7" t="n">
-        <v>35.6189799727442</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="G7" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="H7" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="I7" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="K7" t="n">
-        <v>21.0593627161334</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360324</v>
+        <v>54.48163939360289</v>
       </c>
       <c r="M7" t="n">
-        <v>100.1098670955244</v>
+        <v>100.1098670955238</v>
       </c>
       <c r="N7" t="n">
-        <v>150.0877739486504</v>
+        <v>150.0877739486495</v>
       </c>
       <c r="O7" t="n">
-        <v>180.2341645716492</v>
+        <v>180.2341645716481</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706546</v>
+        <v>182.5089274706532</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706546</v>
+        <v>98.98668255551252</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706546</v>
+        <v>98.98668255551252</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706546</v>
+        <v>98.98668255551252</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706546</v>
+        <v>98.98668255551252</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="W7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="X7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
       <c r="Y7" t="n">
-        <v>182.5089274706546</v>
+        <v>21.05936271613331</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>475.7924068021143</v>
+        <v>830.2186050277096</v>
       </c>
       <c r="C8" t="n">
-        <v>475.7924068021143</v>
+        <v>830.2186050277096</v>
       </c>
       <c r="D8" t="n">
-        <v>475.7924068021143</v>
+        <v>830.2186050277096</v>
       </c>
       <c r="E8" t="n">
-        <v>475.7924068021143</v>
+        <v>444.4303524294654</v>
       </c>
       <c r="F8" t="n">
-        <v>468.8469060529108</v>
+        <v>437.4848516802619</v>
       </c>
       <c r="G8" t="n">
-        <v>369.072511361528</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="H8" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="I8" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="J8" t="n">
-        <v>68.50232366237901</v>
+        <v>68.50232366237822</v>
       </c>
       <c r="K8" t="n">
-        <v>243.7957752888944</v>
+        <v>243.7957752888928</v>
       </c>
       <c r="L8" t="n">
-        <v>513.5394300811114</v>
+        <v>513.5394300811087</v>
       </c>
       <c r="M8" t="n">
-        <v>830.2877655484364</v>
+        <v>830.2877655484326</v>
       </c>
       <c r="N8" t="n">
-        <v>1137.529422687999</v>
+        <v>1137.529422687994</v>
       </c>
       <c r="O8" t="n">
-        <v>1382.461369346576</v>
+        <v>1382.461369346571</v>
       </c>
       <c r="P8" t="n">
-        <v>1553.830736211277</v>
+        <v>1553.83073621127</v>
       </c>
       <c r="Q8" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="R8" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="S8" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="T8" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="U8" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="V8" t="n">
-        <v>1605.300234112162</v>
+        <v>1274.237346768584</v>
       </c>
       <c r="W8" t="n">
-        <v>1252.531578842048</v>
+        <v>1274.237346768584</v>
       </c>
       <c r="X8" t="n">
-        <v>1252.531578842048</v>
+        <v>1220.357937003521</v>
       </c>
       <c r="Y8" t="n">
-        <v>862.3922468662361</v>
+        <v>830.2186050277096</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>661.2654566031921</v>
+        <v>344.9796673955748</v>
       </c>
       <c r="C9" t="n">
-        <v>486.812427322065</v>
+        <v>170.5266381144478</v>
       </c>
       <c r="D9" t="n">
-        <v>337.8780176608138</v>
+        <v>170.5266381144478</v>
       </c>
       <c r="E9" t="n">
-        <v>178.6405626553583</v>
+        <v>170.5266381144478</v>
       </c>
       <c r="F9" t="n">
-        <v>32.10600468224324</v>
+        <v>170.5266381144478</v>
       </c>
       <c r="G9" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="H9" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="I9" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="J9" t="n">
-        <v>60.09002324406237</v>
+        <v>60.0900232440619</v>
       </c>
       <c r="K9" t="n">
-        <v>234.540011309919</v>
+        <v>234.540011309918</v>
       </c>
       <c r="L9" t="n">
-        <v>530.5139450169565</v>
+        <v>461.7764761337332</v>
       </c>
       <c r="M9" t="n">
-        <v>538.0009768955671</v>
+        <v>859.0882840764914</v>
       </c>
       <c r="N9" t="n">
-        <v>935.3127848383272</v>
+        <v>1256.40009201925</v>
       </c>
       <c r="O9" t="n">
-        <v>1256.400092019256</v>
+        <v>1256.40009201925</v>
       </c>
       <c r="P9" t="n">
-        <v>1497.097895911585</v>
+        <v>1497.097895911578</v>
       </c>
       <c r="Q9" t="n">
-        <v>1605.300234112162</v>
+        <v>1605.300234112154</v>
       </c>
       <c r="R9" t="n">
-        <v>1605.300234112162</v>
+        <v>1523.389817569447</v>
       </c>
       <c r="S9" t="n">
-        <v>1499.329949321948</v>
+        <v>1355.734153095714</v>
       </c>
       <c r="T9" t="n">
-        <v>1499.329949321948</v>
+        <v>1154.797849833341</v>
       </c>
       <c r="U9" t="n">
-        <v>1499.329949321948</v>
+        <v>926.5946389371758</v>
       </c>
       <c r="V9" t="n">
-        <v>1499.329949321948</v>
+        <v>691.442530705433</v>
       </c>
       <c r="W9" t="n">
-        <v>1245.092592593747</v>
+        <v>691.442530705433</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.241092388214</v>
+        <v>483.5910304999002</v>
       </c>
       <c r="Y9" t="n">
-        <v>829.4807936232601</v>
+        <v>483.5910304999002</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="C10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="D10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="E10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="F10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="G10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="H10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="I10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="J10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="K10" t="n">
-        <v>39.67156627343433</v>
+        <v>39.67156627343385</v>
       </c>
       <c r="L10" t="n">
-        <v>104.8793149814308</v>
+        <v>104.8793149814299</v>
       </c>
       <c r="M10" t="n">
-        <v>184.0208662875081</v>
+        <v>184.0208662875068</v>
       </c>
       <c r="N10" t="n">
-        <v>266.7152248154449</v>
+        <v>266.7152248154431</v>
       </c>
       <c r="O10" t="n">
-        <v>327.0805538712814</v>
+        <v>327.0805538712792</v>
       </c>
       <c r="P10" t="n">
-        <v>355.2128390825116</v>
+        <v>355.212839082509</v>
       </c>
       <c r="Q10" t="n">
-        <v>355.2128390825116</v>
+        <v>289.9564937176909</v>
       </c>
       <c r="R10" t="n">
-        <v>355.2128390825116</v>
+        <v>289.9564937176909</v>
       </c>
       <c r="S10" t="n">
-        <v>355.2128390825116</v>
+        <v>289.9564937176909</v>
       </c>
       <c r="T10" t="n">
-        <v>355.2128390825116</v>
+        <v>60.8195657150662</v>
       </c>
       <c r="U10" t="n">
-        <v>355.2128390825116</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="V10" t="n">
-        <v>355.2128390825116</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="W10" t="n">
-        <v>260.0955555802606</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="X10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
       <c r="Y10" t="n">
-        <v>32.10600468224324</v>
+        <v>32.10600468224309</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469786</v>
       </c>
       <c r="C11" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.119265768717</v>
       </c>
       <c r="D11" t="n">
-        <v>1575.482104401312</v>
+        <v>1575.482104401309</v>
       </c>
       <c r="E11" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042408</v>
       </c>
       <c r="F11" t="n">
-        <v>785.9650214921453</v>
+        <v>785.9650214921435</v>
       </c>
       <c r="G11" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I11" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J11" t="n">
         <v>372.3074987251936</v>
@@ -5060,31 +5060,31 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q11" t="n">
-        <v>4514.497374127289</v>
+        <v>4514.497374127288</v>
       </c>
       <c r="R11" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S11" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.742435310217</v>
       </c>
       <c r="T11" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.161824228879</v>
       </c>
       <c r="U11" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.34703218777</v>
       </c>
       <c r="V11" t="n">
-        <v>3783.912682083544</v>
+        <v>3783.912682083542</v>
       </c>
       <c r="W11" t="n">
-        <v>3434.772564052773</v>
+        <v>3434.772564052771</v>
       </c>
       <c r="X11" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031033</v>
       </c>
       <c r="Y11" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294564</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H12" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I12" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J12" t="n">
-        <v>240.4596049779265</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K12" t="n">
-        <v>570.9683475412853</v>
+        <v>572.0073801158079</v>
       </c>
       <c r="L12" t="n">
-        <v>1061.700680385037</v>
+        <v>1062.739712959559</v>
       </c>
       <c r="M12" t="n">
-        <v>1653.719034637164</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="N12" t="n">
-        <v>2005.899154770046</v>
+        <v>1320.428158124812</v>
       </c>
       <c r="O12" t="n">
-        <v>2552.77562977024</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P12" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q12" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R12" t="n">
         <v>2552.77562977024</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>559.94910622295</v>
+        <v>621.8538991709347</v>
       </c>
       <c r="C13" t="n">
-        <v>394.6414605343858</v>
+        <v>456.5462534823706</v>
       </c>
       <c r="D13" t="n">
-        <v>394.6414605343858</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="E13" t="n">
-        <v>394.6414605343858</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="F13" t="n">
-        <v>394.6414605343858</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="G13" t="n">
-        <v>231.0558029483074</v>
+        <v>310.0581513093776</v>
       </c>
       <c r="H13" t="n">
-        <v>92.81162322608054</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I13" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J13" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K13" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L13" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M13" t="n">
         <v>1252.639200606911</v>
@@ -5212,10 +5212,10 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O13" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P13" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q13" t="n">
         <v>2456.826409196407</v>
@@ -5224,7 +5224,7 @@
         <v>2392.595601394251</v>
       </c>
       <c r="S13" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372525</v>
       </c>
       <c r="T13" t="n">
         <v>1997.003703326249</v>
@@ -5233,16 +5233,16 @@
         <v>1711.556026880319</v>
       </c>
       <c r="V13" t="n">
-        <v>1465.282722174327</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W13" t="n">
-        <v>1179.494089376709</v>
+        <v>1174.711443116157</v>
       </c>
       <c r="X13" t="n">
-        <v>955.1330757180343</v>
+        <v>950.3504294574828</v>
       </c>
       <c r="Y13" t="n">
-        <v>737.969033813847</v>
+        <v>733.1863875532956</v>
       </c>
     </row>
     <row r="14">
@@ -5273,25 +5273,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="I14" t="n">
-        <v>92.81162322608043</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J14" t="n">
-        <v>372.307498725193</v>
+        <v>372.3074987251944</v>
       </c>
       <c r="K14" t="n">
-        <v>841.9378825128749</v>
+        <v>841.9378825128763</v>
       </c>
       <c r="L14" t="n">
-        <v>1461.45766301865</v>
+        <v>1461.457663018651</v>
       </c>
       <c r="M14" t="n">
-        <v>2182.462224957687</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N14" t="n">
-        <v>2919.747202874793</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O14" t="n">
-        <v>3602.609239333932</v>
+        <v>3602.609239333933</v>
       </c>
       <c r="P14" t="n">
         <v>4150.915188021281</v>
@@ -5355,25 +5355,25 @@
         <v>92.81162322608053</v>
       </c>
       <c r="J15" t="n">
-        <v>92.81162322608053</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="K15" t="n">
-        <v>423.3203657894393</v>
+        <v>240.4596049779265</v>
       </c>
       <c r="L15" t="n">
-        <v>914.0526986331906</v>
+        <v>731.1919378216778</v>
       </c>
       <c r="M15" t="n">
-        <v>1506.071052885318</v>
+        <v>1323.210292073806</v>
       </c>
       <c r="N15" t="n">
-        <v>2128.167016284654</v>
+        <v>1945.306255473142</v>
       </c>
       <c r="O15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="P15" t="n">
-        <v>2552.77562977024</v>
+        <v>2322.214355784993</v>
       </c>
       <c r="Q15" t="n">
         <v>2552.77562977024</v>
@@ -5410,37 +5410,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>555.1664599623978</v>
+        <v>555.1664599623987</v>
       </c>
       <c r="C16" t="n">
-        <v>389.8588142738336</v>
+        <v>389.8588142738346</v>
       </c>
       <c r="D16" t="n">
-        <v>389.8588142738336</v>
+        <v>243.3707121008417</v>
       </c>
       <c r="E16" t="n">
-        <v>389.8588142738336</v>
+        <v>99.08615575779137</v>
       </c>
       <c r="F16" t="n">
-        <v>389.8588142738336</v>
+        <v>99.08615575779137</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0581513093778</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="H16" t="n">
-        <v>171.8139715871509</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I16" t="n">
         <v>92.81162322608053</v>
       </c>
       <c r="J16" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K16" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L16" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M16" t="n">
         <v>1252.639200606911</v>
@@ -5449,10 +5449,10 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O16" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P16" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q16" t="n">
         <v>2456.826409196407</v>
@@ -5461,7 +5461,7 @@
         <v>2392.595601394251</v>
       </c>
       <c r="S16" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372525</v>
       </c>
       <c r="T16" t="n">
         <v>1997.003703326249</v>
@@ -5470,16 +5470,16 @@
         <v>1711.556026880319</v>
       </c>
       <c r="V16" t="n">
-        <v>1460.500075913774</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W16" t="n">
         <v>1174.711443116157</v>
       </c>
       <c r="X16" t="n">
-        <v>950.3504294574821</v>
+        <v>950.3504294574828</v>
       </c>
       <c r="Y16" t="n">
-        <v>733.1863875532947</v>
+        <v>733.1863875532956</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2295.453245469788</v>
+        <v>2295.453245469789</v>
       </c>
       <c r="C17" t="n">
-        <v>1930.119265768719</v>
+        <v>1930.11926576872</v>
       </c>
       <c r="D17" t="n">
-        <v>1575.482104401311</v>
+        <v>1575.482104401312</v>
       </c>
       <c r="E17" t="n">
-        <v>1193.32238904241</v>
+        <v>1193.322389042411</v>
       </c>
       <c r="F17" t="n">
-        <v>785.9650214921448</v>
+        <v>785.9650214921453</v>
       </c>
       <c r="G17" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478945</v>
       </c>
       <c r="H17" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I17" t="n">
         <v>92.81162322608054</v>
@@ -5516,16 +5516,16 @@
         <v>372.3074987251936</v>
       </c>
       <c r="K17" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128761</v>
       </c>
       <c r="L17" t="n">
         <v>1461.45766301865</v>
       </c>
       <c r="M17" t="n">
-        <v>2182.462224957688</v>
+        <v>2182.462224957689</v>
       </c>
       <c r="N17" t="n">
-        <v>2919.747202874794</v>
+        <v>2919.747202874795</v>
       </c>
       <c r="O17" t="n">
         <v>3602.609239333933</v>
@@ -5537,7 +5537,7 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R17" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S17" t="n">
         <v>4558.742435310218</v>
@@ -5555,10 +5555,10 @@
         <v>3434.772564052773</v>
       </c>
       <c r="X17" t="n">
-        <v>3064.935343031036</v>
+        <v>3064.935343031037</v>
       </c>
       <c r="Y17" t="n">
-        <v>2678.424548294567</v>
+        <v>2678.424548294568</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H18" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I18" t="n">
-        <v>92.81162322608054</v>
+        <v>93.85065580060312</v>
       </c>
       <c r="J18" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="K18" t="n">
-        <v>92.81162322608054</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="L18" t="n">
-        <v>372.2013186925058</v>
+        <v>241.4986375524491</v>
       </c>
       <c r="M18" t="n">
-        <v>964.2196729446335</v>
+        <v>833.5169918045769</v>
       </c>
       <c r="N18" t="n">
-        <v>1586.31563634397</v>
+        <v>1455.612955203913</v>
       </c>
       <c r="O18" t="n">
-        <v>2133.192111344164</v>
+        <v>2002.489430204108</v>
       </c>
       <c r="P18" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q18" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R18" t="n">
         <v>2552.77562977024</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>836.5613096687398</v>
+        <v>788.2532414634111</v>
       </c>
       <c r="C19" t="n">
-        <v>671.2536639801756</v>
+        <v>622.945595774847</v>
       </c>
       <c r="D19" t="n">
-        <v>524.7655618071826</v>
+        <v>622.945595774847</v>
       </c>
       <c r="E19" t="n">
-        <v>380.4810054641322</v>
+        <v>478.6610394317967</v>
       </c>
       <c r="F19" t="n">
-        <v>380.4810054641322</v>
+        <v>335.3996291732292</v>
       </c>
       <c r="G19" t="n">
-        <v>231.0558029483074</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="H19" t="n">
-        <v>92.81162322608054</v>
+        <v>171.8139715871509</v>
       </c>
       <c r="I19" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J19" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K19" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L19" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M19" t="n">
         <v>1252.639200606911</v>
@@ -5686,37 +5686,37 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O19" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P19" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q19" t="n">
         <v>2456.826409196407</v>
       </c>
       <c r="R19" t="n">
-        <v>2456.826409196407</v>
+        <v>2392.595601394251</v>
       </c>
       <c r="S19" t="n">
-        <v>2277.284756174679</v>
+        <v>2213.053948372525</v>
       </c>
       <c r="T19" t="n">
-        <v>2061.234511128404</v>
+        <v>1997.003703326249</v>
       </c>
       <c r="U19" t="n">
-        <v>1775.786834682473</v>
+        <v>1711.556026880319</v>
       </c>
       <c r="V19" t="n">
-        <v>1524.730883715929</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W19" t="n">
-        <v>1238.942250918311</v>
+        <v>1407.79822461717</v>
       </c>
       <c r="X19" t="n">
-        <v>1014.581237259637</v>
+        <v>1183.437210958495</v>
       </c>
       <c r="Y19" t="n">
-        <v>1014.581237259637</v>
+        <v>966.273169054308</v>
       </c>
     </row>
     <row r="20">
@@ -5738,16 +5738,16 @@
         <v>1193.322389042409</v>
       </c>
       <c r="F20" t="n">
-        <v>785.9650214921445</v>
+        <v>785.9650214921444</v>
       </c>
       <c r="G20" t="n">
-        <v>375.6104516478937</v>
+        <v>375.6104516478936</v>
       </c>
       <c r="H20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I20" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J20" t="n">
         <v>372.3074987251936</v>
@@ -5774,16 +5774,16 @@
         <v>4514.497374127288</v>
       </c>
       <c r="R20" t="n">
-        <v>4640.581161304027</v>
+        <v>4640.581161304026</v>
       </c>
       <c r="S20" t="n">
-        <v>4558.742435310219</v>
+        <v>4558.742435310218</v>
       </c>
       <c r="T20" t="n">
-        <v>4361.161824228881</v>
+        <v>4361.16182422888</v>
       </c>
       <c r="U20" t="n">
-        <v>4111.347032187772</v>
+        <v>4111.347032187771</v>
       </c>
       <c r="V20" t="n">
         <v>3783.912682083544</v>
@@ -5823,34 +5823,34 @@
         <v>177.6844143428629</v>
       </c>
       <c r="H21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J21" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="K21" t="n">
-        <v>92.81162322608054</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L21" t="n">
-        <v>583.5439560698319</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M21" t="n">
-        <v>1175.56231032196</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N21" t="n">
-        <v>1797.658273721296</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="O21" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P21" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q21" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R21" t="n">
         <v>2552.77562977024</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.1664599623978</v>
+        <v>847.4950728245675</v>
       </c>
       <c r="C22" t="n">
-        <v>389.8588142738336</v>
+        <v>682.1874271360034</v>
       </c>
       <c r="D22" t="n">
-        <v>389.8588142738336</v>
+        <v>682.1874271360034</v>
       </c>
       <c r="E22" t="n">
-        <v>389.8588142738336</v>
+        <v>537.9028707929531</v>
       </c>
       <c r="F22" t="n">
-        <v>389.8588142738336</v>
+        <v>394.6414605343856</v>
       </c>
       <c r="G22" t="n">
-        <v>226.2731566877551</v>
+        <v>231.0558029483073</v>
       </c>
       <c r="H22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="I22" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608053</v>
       </c>
       <c r="J22" t="n">
-        <v>175.3500754639143</v>
+        <v>175.3500754639144</v>
       </c>
       <c r="K22" t="n">
-        <v>438.5351317827578</v>
+        <v>438.535131782758</v>
       </c>
       <c r="L22" t="n">
-        <v>829.8532792141718</v>
+        <v>829.8532792141721</v>
       </c>
       <c r="M22" t="n">
         <v>1252.639200606911</v>
@@ -5923,10 +5923,10 @@
         <v>1670.891395746898</v>
       </c>
       <c r="O22" t="n">
-        <v>2041.470182110207</v>
+        <v>2041.470182110208</v>
       </c>
       <c r="P22" t="n">
-        <v>2335.556946294691</v>
+        <v>2335.556946294692</v>
       </c>
       <c r="Q22" t="n">
         <v>2456.826409196407</v>
@@ -5935,7 +5935,7 @@
         <v>2392.595601394251</v>
       </c>
       <c r="S22" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372525</v>
       </c>
       <c r="T22" t="n">
         <v>1997.003703326249</v>
@@ -5944,16 +5944,16 @@
         <v>1711.556026880319</v>
       </c>
       <c r="V22" t="n">
-        <v>1460.500075913774</v>
+        <v>1460.500075913775</v>
       </c>
       <c r="W22" t="n">
-        <v>1174.711443116157</v>
+        <v>1242.679042319652</v>
       </c>
       <c r="X22" t="n">
-        <v>950.3504294574821</v>
+        <v>1242.679042319652</v>
       </c>
       <c r="Y22" t="n">
-        <v>733.1863875532947</v>
+        <v>1025.515000415464</v>
       </c>
     </row>
     <row r="23">
@@ -5984,13 +5984,13 @@
         <v>92.81162322608054</v>
       </c>
       <c r="I23" t="n">
-        <v>92.81162322608054</v>
+        <v>92.81162322608043</v>
       </c>
       <c r="J23" t="n">
-        <v>372.3074987251936</v>
+        <v>372.3074987251935</v>
       </c>
       <c r="K23" t="n">
-        <v>841.9378825128755</v>
+        <v>841.9378825128756</v>
       </c>
       <c r="L23" t="n">
         <v>1461.45766301865</v>
@@ -6008,7 +6008,7 @@
         <v>4150.915188021281</v>
       </c>
       <c r="Q23" t="n">
-        <v>4514.497374127288</v>
+        <v>4514.497374127289</v>
       </c>
       <c r="R23" t="n">
         <v>4640.581161304027</v>
@@ -6026,7 +6026,7 @@
         <v>3783.912682083544</v>
       </c>
       <c r="W23" t="n">
-        <v>3434.772564052772</v>
+        <v>3434.772564052773</v>
       </c>
       <c r="X23" t="n">
         <v>3064.935343031035</v>
@@ -6069,25 +6069,25 @@
         <v>92.81162322608054</v>
       </c>
       <c r="K24" t="n">
-        <v>92.81162322608054</v>
+        <v>423.3203657894393</v>
       </c>
       <c r="L24" t="n">
-        <v>583.5439560698319</v>
+        <v>914.0526986331906</v>
       </c>
       <c r="M24" t="n">
-        <v>1175.56231032196</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="N24" t="n">
-        <v>1797.658273721296</v>
+        <v>1506.071052885318</v>
       </c>
       <c r="O24" t="n">
-        <v>2344.53474872149</v>
+        <v>1867.304633125007</v>
       </c>
       <c r="P24" t="n">
-        <v>2552.77562977024</v>
+        <v>2286.888151551083</v>
       </c>
       <c r="Q24" t="n">
-        <v>2552.77562977024</v>
+        <v>2517.44942553633</v>
       </c>
       <c r="R24" t="n">
         <v>2552.77562977024</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.1664599623978</v>
+        <v>555.1664599623964</v>
       </c>
       <c r="C25" t="n">
-        <v>547.1699393282023</v>
+        <v>389.8588142738322</v>
       </c>
       <c r="D25" t="n">
-        <v>400.6818371552093</v>
+        <v>243.3707121008392</v>
       </c>
       <c r="E25" t="n">
-        <v>256.397280812159</v>
+        <v>243.3707121008392</v>
       </c>
       <c r="F25" t="n">
-        <v>256.397280812159</v>
+        <v>243.3707121008392</v>
       </c>
       <c r="G25" t="n">
         <v>92.81162322608054</v>
@@ -6148,7 +6148,7 @@
         <v>175.3500754639143</v>
       </c>
       <c r="K25" t="n">
-        <v>438.5351317827578</v>
+        <v>438.5351317827577</v>
       </c>
       <c r="L25" t="n">
         <v>829.8532792141718</v>
@@ -6166,31 +6166,31 @@
         <v>2335.556946294691</v>
       </c>
       <c r="Q25" t="n">
-        <v>2456.826409196407</v>
+        <v>2456.826409196406</v>
       </c>
       <c r="R25" t="n">
-        <v>2392.595601394251</v>
+        <v>2392.59560139425</v>
       </c>
       <c r="S25" t="n">
-        <v>2213.053948372524</v>
+        <v>2213.053948372523</v>
       </c>
       <c r="T25" t="n">
-        <v>1997.003703326249</v>
+        <v>1997.003703326248</v>
       </c>
       <c r="U25" t="n">
-        <v>1711.556026880319</v>
+        <v>1711.556026880318</v>
       </c>
       <c r="V25" t="n">
-        <v>1460.500075913774</v>
+        <v>1460.500075913773</v>
       </c>
       <c r="W25" t="n">
-        <v>1174.711443116157</v>
+        <v>1174.711443116155</v>
       </c>
       <c r="X25" t="n">
-        <v>950.3504294574821</v>
+        <v>950.3504294574807</v>
       </c>
       <c r="Y25" t="n">
-        <v>733.1863875532947</v>
+        <v>733.1863875532933</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831368</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890956</v>
       </c>
       <c r="D26" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284206</v>
       </c>
       <c r="E26" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685962</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I26" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015223</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892043</v>
+        <v>842.9746074384019</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294979</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234017</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.583449151123</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610261</v>
+        <v>3603.645964259459</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297609</v>
+        <v>4151.951912946807</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403616</v>
+        <v>4515.534099052814</v>
       </c>
       <c r="R26" t="n">
-        <v>4692.417407580354</v>
+        <v>4692.417407580349</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.950144347203</v>
+        <v>4606.950144347198</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.740996026521</v>
+        <v>4405.740996026517</v>
       </c>
       <c r="U26" t="n">
-        <v>4152.297666746073</v>
+        <v>4152.297666746066</v>
       </c>
       <c r="V26" t="n">
-        <v>3821.234779402502</v>
+        <v>3821.234779402495</v>
       </c>
       <c r="W26" t="n">
-        <v>3468.466124132387</v>
+        <v>3468.466124132381</v>
       </c>
       <c r="X26" t="n">
-        <v>3095.000365871307</v>
+        <v>3095.000365871301</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.86103389549</v>
       </c>
     </row>
     <row r="27">
@@ -6294,37 +6294,37 @@
         <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I27" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="K27" t="n">
-        <v>302.0892292003568</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L27" t="n">
-        <v>792.8215620441082</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M27" t="n">
-        <v>1384.839916296236</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N27" t="n">
-        <v>2006.935879695572</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.812354695766</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R27" t="n">
         <v>2553.812354695766</v>
@@ -6358,37 +6358,37 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.9550599890971</v>
+        <v>495.0957149475996</v>
       </c>
       <c r="C28" t="n">
-        <v>562.9550599890971</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D28" t="n">
-        <v>562.9550599890971</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="E28" t="n">
-        <v>549.8252074365085</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385981</v>
+        <v>261.0625429770281</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131768</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="H28" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="I28" t="n">
-        <v>93.84834815160708</v>
+        <v>93.84834815160698</v>
       </c>
       <c r="J28" t="n">
         <v>172.8304710411609</v>
       </c>
       <c r="K28" t="n">
-        <v>432.4591980117244</v>
+        <v>432.4591980117245</v>
       </c>
       <c r="L28" t="n">
-        <v>820.2210160948586</v>
+        <v>820.2210160948588</v>
       </c>
       <c r="M28" t="n">
         <v>1239.450608139318</v>
@@ -6397,7 +6397,7 @@
         <v>1654.146473931025</v>
       </c>
       <c r="O28" t="n">
-        <v>2021.168930946054</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P28" t="n">
         <v>2311.699365782259</v>
@@ -6406,28 +6406,28 @@
         <v>2429.412499335694</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335694</v>
+        <v>2361.553154294195</v>
       </c>
       <c r="S28" t="n">
-        <v>2246.242309074624</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T28" t="n">
-        <v>2026.563526789006</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1737.487313103732</v>
+        <v>1669.627968062234</v>
       </c>
       <c r="V28" t="n">
-        <v>1482.802824897845</v>
+        <v>1414.943479856347</v>
       </c>
       <c r="W28" t="n">
-        <v>1193.385654860885</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X28" t="n">
-        <v>965.3961039628672</v>
+        <v>897.5367589213695</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.6035248193369</v>
+        <v>676.7441797778393</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C29" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D29" t="n">
         <v>1591.032978284208</v>
@@ -6449,16 +6449,16 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
         <v>373.34422365072</v>
@@ -6470,43 +6470,43 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M29" t="n">
-        <v>2234.298471234013</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N29" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O29" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P29" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q29" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R29" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U29" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V29" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W29" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X29" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H30" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I30" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160701</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160701</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180322</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M30" t="n">
-        <v>965.25639787016</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>495.0957149476001</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="C31" t="n">
-        <v>495.0957149476001</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D31" t="n">
-        <v>388.6513892319105</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E31" t="n">
-        <v>240.7382956495174</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F31" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H31" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I31" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
         <v>172.8304710411609</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C32" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D32" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E32" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G32" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507201</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K32" t="n">
         <v>842.974607438402</v>
@@ -6719,13 +6719,13 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6743,7 +6743,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160704</v>
+        <v>94.88738072612962</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160704</v>
+        <v>242.5353624779756</v>
       </c>
       <c r="K33" t="n">
-        <v>93.84834815160704</v>
+        <v>573.0441050413344</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2380436180322</v>
+        <v>1063.776437885086</v>
       </c>
       <c r="M33" t="n">
-        <v>965.25639787016</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N33" t="n">
-        <v>1587.352361269496</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O33" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6835,31 +6835,31 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476001</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D34" t="n">
-        <v>495.0957149476001</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="E34" t="n">
-        <v>402.9352599385978</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="F34" t="n">
-        <v>402.9352599385978</v>
+        <v>176.0428926073575</v>
       </c>
       <c r="G34" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K34" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L34" t="n">
         <v>820.2210160948589</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>424.1437450015205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T35" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="36">
@@ -7008,34 +7008,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J36" t="n">
-        <v>93.84834815160701</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K36" t="n">
-        <v>93.84834815160701</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L36" t="n">
-        <v>373.2380436180322</v>
+        <v>654.2270403990691</v>
       </c>
       <c r="M36" t="n">
-        <v>965.25639787016</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N36" t="n">
-        <v>1587.352361269496</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O36" t="n">
-        <v>2134.22883626969</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R36" t="n">
         <v>2553.812354695766</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>615.3585376238359</v>
       </c>
       <c r="C37" t="n">
-        <v>388.6513892319105</v>
+        <v>615.3585376238359</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6513892319105</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7382956495174</v>
+        <v>465.2418982115001</v>
       </c>
       <c r="F37" t="n">
-        <v>93.84834815160701</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160701</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L37" t="n">
         <v>820.2210160948589</v>
@@ -7132,13 +7132,13 @@
         <v>1414.943479856348</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819387</v>
+        <v>1245.789132495623</v>
       </c>
       <c r="X37" t="n">
-        <v>897.5367589213699</v>
+        <v>1017.799581597606</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778398</v>
+        <v>797.0070024540756</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
         <v>1591.032978284208</v>
@@ -7160,46 +7160,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892015</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.58344915112</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P38" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7245,34 +7245,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I39" t="n">
-        <v>94.88738072612962</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="J39" t="n">
-        <v>242.5353624779756</v>
+        <v>94.88738072612963</v>
       </c>
       <c r="K39" t="n">
-        <v>573.0441050413344</v>
+        <v>425.3961232894884</v>
       </c>
       <c r="L39" t="n">
-        <v>1063.776437885086</v>
+        <v>916.1284561332398</v>
       </c>
       <c r="M39" t="n">
-        <v>1655.794792137213</v>
+        <v>1246.245394651197</v>
       </c>
       <c r="N39" t="n">
-        <v>2277.890755536549</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R39" t="n">
         <v>2553.812354695766</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>746.1252502501684</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C40" t="n">
-        <v>577.1890673222615</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D40" t="n">
-        <v>427.0724279099258</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E40" t="n">
-        <v>279.1593343275326</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F40" t="n">
-        <v>279.1593343275326</v>
+        <v>348.2057674496897</v>
       </c>
       <c r="G40" t="n">
-        <v>111.9451395021115</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>111.9451395021115</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L40" t="n">
         <v>820.2210160948589</v>
@@ -7354,28 +7354,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R40" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S40" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T40" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V40" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W40" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X40" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y40" t="n">
-        <v>927.7737150804081</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="41">
@@ -7385,31 +7385,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890957</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963557</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127628</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J41" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K41" t="n">
         <v>842.974607438402</v>
@@ -7418,31 +7418,31 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M41" t="n">
-        <v>2234.298471234013</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N41" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O41" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P41" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q41" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V41" t="n">
         <v>3821.234779402497</v>
@@ -7482,34 +7482,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K42" t="n">
-        <v>302.0892292003568</v>
+        <v>337.911839384122</v>
       </c>
       <c r="L42" t="n">
-        <v>792.8215620441082</v>
+        <v>337.911839384122</v>
       </c>
       <c r="M42" t="n">
-        <v>1384.839916296236</v>
+        <v>929.9301936362498</v>
       </c>
       <c r="N42" t="n">
-        <v>2006.935879695572</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.812354695766</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R42" t="n">
         <v>2553.812354695766</v>
@@ -7543,46 +7543,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599891013</v>
+        <v>660.5427050877414</v>
       </c>
       <c r="C43" t="n">
-        <v>562.9550599891013</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="D43" t="n">
-        <v>412.8384205767657</v>
+        <v>491.6065221598345</v>
       </c>
       <c r="E43" t="n">
-        <v>264.9253269943728</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="F43" t="n">
-        <v>118.0353794964626</v>
+        <v>343.6934285774414</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411611</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117249</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948594</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139319</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931026</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946056</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P43" t="n">
         <v>2311.69936578226</v>
@@ -7591,28 +7591,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074626</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526789008</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103735</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897848</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860888</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628708</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193409</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="44">
@@ -7625,28 +7625,28 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J44" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K44" t="n">
         <v>842.974607438402</v>
@@ -7667,28 +7667,28 @@
         <v>4151.951912946808</v>
       </c>
       <c r="Q44" t="n">
-        <v>4515.534099052815</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746067</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402496</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.861033895493</v>
@@ -7719,34 +7719,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K45" t="n">
-        <v>302.0892292003568</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L45" t="n">
-        <v>792.8215620441082</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M45" t="n">
-        <v>1384.839916296236</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N45" t="n">
-        <v>2006.935879695572</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7780,34 +7780,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.9550599890988</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C46" t="n">
-        <v>394.0188770611919</v>
+        <v>621.3989142446594</v>
       </c>
       <c r="D46" t="n">
-        <v>394.0188770611919</v>
+        <v>471.2822748323237</v>
       </c>
       <c r="E46" t="n">
-        <v>394.0188770611919</v>
+        <v>323.3691812499305</v>
       </c>
       <c r="F46" t="n">
-        <v>394.0188770611919</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="G46" t="n">
-        <v>226.8046822357708</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L46" t="n">
         <v>820.2210160948589</v>
@@ -7828,28 +7828,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X46" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
   </sheetData>
@@ -8055,28 +8055,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>208.9201083558613</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429919</v>
       </c>
       <c r="M3" t="n">
-        <v>392.8337743093847</v>
+        <v>392.8337743093849</v>
       </c>
       <c r="N3" t="n">
-        <v>118.4674613291454</v>
+        <v>381.7094952808121</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>237.7646974507861</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.16091651142</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>208.9201083558625</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093852</v>
+        <v>392.8337743093847</v>
       </c>
       <c r="N6" t="n">
-        <v>118.4674613291449</v>
+        <v>381.7094952808119</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>162.3651468139937</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.6630807868108</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8535,16 +8535,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>301.4085585527302</v>
       </c>
       <c r="M9" t="n">
-        <v>71.88707363965904</v>
+        <v>465.6494737044555</v>
       </c>
       <c r="N9" t="n">
-        <v>452.797762787322</v>
+        <v>452.7977627873211</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>69.53170596266082</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8708,7 +8708,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>7.958078640513122e-13</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>6.394884621840902e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909318</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782908809</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10118,7 +10118,7 @@
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>51.31264782908943</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>51.31264782908892</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10367,10 +10367,10 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>51.31264782908983</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>51.31264782909136</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782908809</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>51.31264782909079</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11066,13 +11066,13 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>51.31264782908943</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11315,10 +11315,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>51.31264782908983</v>
       </c>
       <c r="R44" t="n">
-        <v>51.31264782908809</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>66.02056481645062</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>142.8417107796199</v>
+        <v>142.8417107796198</v>
       </c>
       <c r="F13" t="n">
-        <v>141.8287961559819</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>161.9498010102175</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23473,7 +23473,7 @@
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>4.734819797946955</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>145.023221151263</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>141.8287961559819</v>
+        <v>141.8287961559818</v>
       </c>
       <c r="G16" t="n">
-        <v>82.94714467540643</v>
+        <v>155.7380138038238</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>145.023221151263</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>14.01885051955105</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>136.8617379250045</v>
       </c>
       <c r="I19" t="n">
-        <v>78.21232487745971</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>63.58849972413424</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>230.7559136860023</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>214.9924014851455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24133,19 +24133,19 @@
         <v>145.023221151263</v>
       </c>
       <c r="E22" t="n">
-        <v>142.8417107796199</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>141.8287961559819</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>4.734819797946756</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>78.21232487745971</v>
+        <v>78.21232487745962</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,10 +24187,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>67.2879232114594</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>222.1174035220878</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>155.738013803825</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>142.8417107796199</v>
       </c>
       <c r="F25" t="n">
-        <v>141.8287961559819</v>
+        <v>141.828796155982</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>12.89630302420662</v>
       </c>
       <c r="H25" t="n">
         <v>136.8617379250046</v>
       </c>
       <c r="I25" t="n">
-        <v>78.21232487745971</v>
+        <v>78.21232487745974</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.246821098628</v>
+        <v>84.16945386597443</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>133.4354086195067</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440916</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108369</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>125.0401673040887</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>43.23559055967965</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,22 +25075,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>55.19511218765695</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>84.16945386597401</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
         <v>81.80457674440902</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>61.86693864009513</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25327,10 +25327,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>119.0601944494734</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>135.986774308428</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>63.8887533074096</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25594,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,28 +25783,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>163.7925202387399</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986277</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>141.5968918457598</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919537</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440888</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108341</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26020,28 +26020,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>112.4550082207792</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>8.827219048631804</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>653090.1507845144</v>
+        <v>653090.1507845145</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>652466.9430367696</v>
+        <v>652466.9430367695</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>652466.9430367695</v>
+        <v>652466.9430367697</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>652466.9430367697</v>
+        <v>652466.9430367696</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>652466.9430367695</v>
+        <v>652466.9430367696</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710688</v>
+        <v>779989.6813710692</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710686</v>
+        <v>779989.6813710689</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.68137107</v>
       </c>
       <c r="E2" t="n">
-        <v>768301.4694720899</v>
+        <v>768301.4694720897</v>
       </c>
       <c r="F2" t="n">
-        <v>768301.4694720902</v>
+        <v>768301.4694720897</v>
       </c>
       <c r="G2" t="n">
         <v>768301.46947209</v>
       </c>
       <c r="H2" t="n">
-        <v>768301.46947209</v>
+        <v>768301.4694720898</v>
       </c>
       <c r="I2" t="n">
-        <v>768301.46947209</v>
+        <v>768301.4694720902</v>
       </c>
       <c r="J2" t="n">
+        <v>766348.8282626314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>766348.8282626314</v>
+      </c>
+      <c r="L2" t="n">
         <v>766348.8282626313</v>
       </c>
-      <c r="K2" t="n">
-        <v>766348.8282626315</v>
-      </c>
-      <c r="L2" t="n">
-        <v>766348.8282626315</v>
-      </c>
       <c r="M2" t="n">
-        <v>766348.8282626315</v>
+        <v>766348.8282626313</v>
       </c>
       <c r="N2" t="n">
         <v>766348.8282626314</v>
       </c>
       <c r="O2" t="n">
-        <v>766348.8282626311</v>
+        <v>766348.8282626317</v>
       </c>
       <c r="P2" t="n">
-        <v>766348.8282626314</v>
+        <v>766348.8282626315</v>
       </c>
     </row>
     <row r="3">
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>110394.4548749495</v>
+        <v>110394.4548749498</v>
       </c>
       <c r="C3" t="n">
-        <v>1.015260201654655e-09</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>145453.924470616</v>
+        <v>145453.9244706153</v>
       </c>
       <c r="E3" t="n">
-        <v>1205793.281088392</v>
+        <v>1205793.281088394</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.1100699026656e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>72266.35943643058</v>
+        <v>72266.35943643055</v>
       </c>
       <c r="K3" t="n">
-        <v>1.157656827542399e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34947.57077305893</v>
+        <v>34947.57077305861</v>
       </c>
       <c r="M3" t="n">
-        <v>189101.0370449803</v>
+        <v>189101.0370449808</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>354753.502998367</v>
+      </c>
+      <c r="C4" t="n">
         <v>354753.5029983671</v>
       </c>
-      <c r="C4" t="n">
-        <v>354753.5029983667</v>
-      </c>
       <c r="D4" t="n">
-        <v>311868.6124176197</v>
+        <v>311868.6124176203</v>
       </c>
       <c r="E4" t="n">
-        <v>10357.8196464939</v>
+        <v>10357.81964649396</v>
       </c>
       <c r="F4" t="n">
-        <v>10357.81964649388</v>
+        <v>10357.81964649397</v>
       </c>
       <c r="G4" t="n">
-        <v>10357.8196464939</v>
+        <v>10357.81964649396</v>
       </c>
       <c r="H4" t="n">
-        <v>10357.81964649387</v>
+        <v>10357.81964649395</v>
       </c>
       <c r="I4" t="n">
-        <v>10357.81964649387</v>
+        <v>10357.81964649386</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431524</v>
+        <v>7918.140297431736</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431682</v>
+        <v>7918.140297431671</v>
       </c>
       <c r="L4" t="n">
-        <v>7918.140297431688</v>
+        <v>7918.140297431673</v>
       </c>
       <c r="M4" t="n">
-        <v>7918.140297431655</v>
+        <v>7918.14029743172</v>
       </c>
       <c r="N4" t="n">
-        <v>7918.140297431701</v>
+        <v>7918.140297431736</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431821</v>
+        <v>7918.140297431663</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.14029743168</v>
+        <v>7918.140297431689</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50134.40740683334</v>
+        <v>50134.40740683336</v>
       </c>
       <c r="C5" t="n">
-        <v>50134.40740683341</v>
+        <v>50134.40740683332</v>
       </c>
       <c r="D5" t="n">
-        <v>61140.54830832894</v>
+        <v>61140.5483083288</v>
       </c>
       <c r="E5" t="n">
         <v>100444.125536041</v>
@@ -26491,25 +26491,25 @@
         <v>100444.125536041</v>
       </c>
       <c r="J5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="K5" t="n">
         <v>100930.0394572385</v>
       </c>
       <c r="L5" t="n">
+        <v>100930.0394572385</v>
+      </c>
+      <c r="M5" t="n">
         <v>100930.0394572386</v>
       </c>
-      <c r="M5" t="n">
-        <v>100930.0394572385</v>
-      </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>264707.3160909189</v>
+        <v>264707.316090919</v>
       </c>
       <c r="C6" t="n">
-        <v>375101.7709658674</v>
+        <v>375101.7709658691</v>
       </c>
       <c r="D6" t="n">
-        <v>261526.5961745048</v>
+        <v>261526.5961745056</v>
       </c>
       <c r="E6" t="n">
-        <v>-548293.7567988368</v>
+        <v>-548324.5152512046</v>
       </c>
       <c r="F6" t="n">
-        <v>657499.5242895554</v>
+        <v>657468.7658371889</v>
       </c>
       <c r="G6" t="n">
-        <v>657499.524289555</v>
+        <v>657468.7658371893</v>
       </c>
       <c r="H6" t="n">
-        <v>657499.5242895551</v>
+        <v>657468.765837189</v>
       </c>
       <c r="I6" t="n">
-        <v>657499.5242895551</v>
+        <v>657468.7658371897</v>
       </c>
       <c r="J6" t="n">
-        <v>585234.2890715306</v>
+        <v>585198.3920896663</v>
       </c>
       <c r="K6" t="n">
-        <v>657500.6485079612</v>
+        <v>657464.751526097</v>
       </c>
       <c r="L6" t="n">
-        <v>622553.0777349024</v>
+        <v>622517.1807530381</v>
       </c>
       <c r="M6" t="n">
-        <v>468399.6114629811</v>
+        <v>468363.7144811159</v>
       </c>
       <c r="N6" t="n">
-        <v>657500.6485079612</v>
+        <v>657464.7515260967</v>
       </c>
       <c r="O6" t="n">
-        <v>657500.6485079607</v>
+        <v>657464.7515260972</v>
       </c>
       <c r="P6" t="n">
-        <v>657500.6485079612</v>
+        <v>657464.751526097</v>
       </c>
     </row>
   </sheetData>
@@ -26692,22 +26692,22 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268679017</v>
+        <v>23.01338268678915</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7699426524812</v>
+        <v>142.7699426524796</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26787,31 +26787,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>263.2420339516675</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="D4" t="n">
-        <v>401.3250585280405</v>
+        <v>401.3250585280386</v>
       </c>
       <c r="E4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="F4" t="n">
         <v>1160.145290326006</v>
       </c>
       <c r="G4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="H4" t="n">
-        <v>1160.145290326007</v>
+        <v>1160.145290326006</v>
       </c>
       <c r="I4" t="n">
         <v>1160.145290326007</v>
       </c>
       <c r="J4" t="n">
-        <v>1173.104351895088</v>
+        <v>1173.104351895087</v>
       </c>
       <c r="K4" t="n">
         <v>1173.104351895088</v>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,10 +26929,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1.199040866595169e-13</v>
       </c>
       <c r="K2" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678962</v>
       </c>
       <c r="C3" t="n">
-        <v>7.922551503725117e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119.756559965691</v>
+        <v>119.7565599656905</v>
       </c>
       <c r="E3" t="n">
-        <v>1215.271106063905</v>
+        <v>1215.271106063906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,22 +27009,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="C4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>138.083024576373</v>
+        <v>138.0830245763722</v>
       </c>
       <c r="E4" t="n">
-        <v>758.8202317979662</v>
+        <v>758.8202317979678</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>276.2010955207484</v>
+        <v>276.2010955207475</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>138.0830245763734</v>
+        <v>138.0830245763722</v>
       </c>
       <c r="M4" t="n">
-        <v>758.8202317979658</v>
+        <v>758.8202317979681</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.199040866595169e-13</v>
       </c>
       <c r="P2" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,22 +27255,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="K4" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>138.083024576373</v>
+        <v>138.0830245763722</v>
       </c>
       <c r="M4" t="n">
-        <v>758.8202317979662</v>
+        <v>758.8202317979678</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>285.9224304607358</v>
+        <v>151.9681874521645</v>
       </c>
       <c r="H2" t="n">
         <v>338.5273214908784</v>
@@ -27400,7 +27400,7 @@
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852073</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>206.9118586999128</v>
+        <v>73.52696770396423</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.4890667268024</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,16 +27455,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27476,7 +27476,7 @@
         <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>87.69233988828962</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703753</v>
       </c>
       <c r="S3" t="n">
-        <v>128.0315201553297</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>133.3494487187195</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.99691107496236</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27555,13 +27555,13 @@
         <v>161.8582038473137</v>
       </c>
       <c r="I4" t="n">
-        <v>154.2024705022108</v>
+        <v>154.2024705022107</v>
       </c>
       <c r="J4" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839141</v>
       </c>
       <c r="K4" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871611</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>82.68702246598916</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27588,7 +27588,7 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>227.7682732010226</v>
+        <v>67.9332040940474</v>
       </c>
       <c r="U4" t="n">
         <v>286.3167657450791</v>
@@ -27616,10 +27616,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>102.03085781934</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>91.44100766901545</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27631,13 +27631,13 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>132.8471051846444</v>
+        <v>75.28528753921194</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893708</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852234</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,22 +27661,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644699</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
-        <v>206.9118586999128</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>222.6908602868995</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>272.4318448134616</v>
       </c>
       <c r="W5" t="n">
-        <v>85.9989347657455</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27710,10 +27710,10 @@
         <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>110.1296200632185</v>
       </c>
       <c r="I6" t="n">
-        <v>87.69233988828958</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703746</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>199.9652070090748</v>
@@ -27755,13 +27755,13 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>100.2996914017127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27783,22 +27783,22 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>153.5354587318641</v>
+        <v>167.9494798159088</v>
       </c>
       <c r="H7" t="n">
         <v>161.8582038473137</v>
       </c>
       <c r="I7" t="n">
-        <v>154.2024705022107</v>
+        <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839134</v>
+        <v>90.42516245839148</v>
       </c>
       <c r="K7" t="n">
-        <v>17.447999518716</v>
+        <v>17.44799951871621</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,19 +27816,19 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598907</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366963</v>
+        <v>175.4274210366964</v>
       </c>
       <c r="S7" t="n">
-        <v>223.2933741908972</v>
+        <v>223.2933741908973</v>
       </c>
       <c r="T7" t="n">
         <v>227.7682732010226</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3167657450791</v>
+        <v>209.1687191040937</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>315.9521372524651</v>
+        <v>13.40372946889551</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>333.596841612492</v>
       </c>
       <c r="I8" t="n">
-        <v>188.3487007699646</v>
+        <v>188.3487007699648</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>113.8157615184605</v>
+        <v>113.8157615184609</v>
       </c>
       <c r="S8" t="n">
-        <v>195.9411949402416</v>
+        <v>195.9411949402418</v>
       </c>
       <c r="T8" t="n">
         <v>220.5833855482068</v>
@@ -27910,13 +27910,13 @@
         <v>251.2997369463804</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>316.3904850110571</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -27929,28 +27929,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>29.30793417658521</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0364270978827</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>109.2696007108289</v>
       </c>
       <c r="I9" t="n">
-        <v>78.82357577762284</v>
+        <v>78.82357577762295</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,28 +27977,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.09131237727969</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>61.06852588668437</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9269402297496</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9211787872032</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28029,10 +28029,10 @@
         <v>159.9381724432736</v>
       </c>
       <c r="I10" t="n">
-        <v>147.7081311519401</v>
+        <v>147.7081311519402</v>
       </c>
       <c r="J10" t="n">
-        <v>75.157182673913</v>
+        <v>75.1571826739132</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.60378191116972</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>165.7173235680027</v>
+        <v>165.7173235680029</v>
       </c>
       <c r="S10" t="n">
         <v>219.5298770523033</v>
       </c>
       <c r="T10" t="n">
-        <v>226.8455587225984</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.304986411312</v>
+        <v>257.8785609888171</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>192.3568876693625</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y11" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="J13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="L13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="M13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="N13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="O13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Q13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="R13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="S13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y13" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949312</v>
       </c>
       <c r="U14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y14" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="J16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="L16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="M16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="N16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="O16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="R16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="S16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y16" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="J19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="L19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="M19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="N19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="O19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="R19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="S19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949255</v>
       </c>
       <c r="D20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V20" t="n">
-        <v>3.592251866948686</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y20" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="C22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="D22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="E22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="F22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="G22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="H22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="I22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="J22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="K22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="L22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="M22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="N22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="O22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="P22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Q22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="R22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="S22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="T22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="U22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="V22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="W22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="X22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
       <c r="Y22" t="n">
-        <v>3.592251866949314</v>
+        <v>3.592251866949394</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="C23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="D23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="E23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="F23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="G23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="H23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="T23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="U23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="V23" t="n">
-        <v>3.592251866948686</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="W23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="X23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="Y23" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="C25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="D25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="E25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="F25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="G25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="H25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="I25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="J25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="K25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="L25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="M25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="N25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="O25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="P25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="R25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="S25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="T25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="U25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="V25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="W25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="X25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.592251866949314</v>
+        <v>3.59225186694929</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>1.735192492204115e-12</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>6.431426819679993e-14</v>
       </c>
       <c r="H26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>-2.16769786614566e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>-1.447071034427998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>5.551115123125783e-14</v>
       </c>
     </row>
     <row r="39">
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>1.447071034427998e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -30757,7 +30757,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>5.785973998768142e-13</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367678</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.94748062488878</v>
       </c>
       <c r="I2" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381035002</v>
       </c>
       <c r="J2" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760444</v>
       </c>
       <c r="K2" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324508</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455499</v>
       </c>
       <c r="M2" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895175</v>
       </c>
       <c r="N2" t="n">
-        <v>16.50788103019315</v>
+        <v>16.50788103019332</v>
       </c>
       <c r="O2" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841738</v>
       </c>
       <c r="P2" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060786</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544932</v>
       </c>
       <c r="R2" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679592</v>
       </c>
       <c r="S2" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332537</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318453</v>
       </c>
       <c r="U2" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.00740128890429414</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498144</v>
       </c>
       <c r="H3" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104787</v>
       </c>
       <c r="I3" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125458</v>
       </c>
       <c r="J3" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246559</v>
       </c>
       <c r="K3" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750314</v>
       </c>
       <c r="L3" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688226</v>
       </c>
       <c r="M3" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430034</v>
       </c>
       <c r="N3" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418809</v>
       </c>
       <c r="O3" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104034</v>
       </c>
       <c r="P3" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277523079</v>
       </c>
       <c r="Q3" t="n">
-        <v>6.318693299210549</v>
+        <v>6.318693299210613</v>
       </c>
       <c r="R3" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605603</v>
       </c>
       <c r="S3" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523959</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467891</v>
       </c>
       <c r="U3" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.00325661075756457</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994848</v>
       </c>
       <c r="H4" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.3689686601259058</v>
       </c>
       <c r="I4" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047542</v>
       </c>
       <c r="J4" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281358</v>
       </c>
       <c r="K4" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166741</v>
       </c>
       <c r="L4" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471433</v>
       </c>
       <c r="M4" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988742</v>
       </c>
       <c r="N4" t="n">
-        <v>6.350561815847965</v>
+        <v>6.35056181584803</v>
       </c>
       <c r="O4" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150903</v>
       </c>
       <c r="P4" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131949</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705232</v>
       </c>
       <c r="R4" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473138</v>
       </c>
       <c r="S4" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.723223846075011</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588708</v>
       </c>
       <c r="U4" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815374</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367902</v>
+        <v>0.09251611130367489</v>
       </c>
       <c r="H5" t="n">
-        <v>0.947480624888803</v>
+        <v>0.9474806248887607</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381035089</v>
+        <v>3.56672738103493</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760634</v>
+        <v>7.852189301760284</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324537</v>
+        <v>11.76839629324484</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455534</v>
+        <v>14.59973623455469</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895214</v>
+        <v>16.24501962895141</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019372</v>
+        <v>16.50788103019298</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841776</v>
+        <v>15.58792394841707</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060818</v>
+        <v>13.30393245060759</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214545174</v>
+        <v>9.990699214544728</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679732</v>
+        <v>5.811515176679473</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332588</v>
+        <v>2.108210886332494</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318551</v>
+        <v>0.404989277231837</v>
       </c>
       <c r="U5" t="n">
-        <v>0.00740128890429432</v>
+        <v>0.00740128890429399</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498264</v>
+        <v>0.04950048351498043</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104903</v>
+        <v>0.478070459210469</v>
       </c>
       <c r="I6" t="n">
-        <v>1.704292963125499</v>
+        <v>1.704292963125423</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246671</v>
+        <v>4.676710155246463</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750508</v>
+        <v>7.993242550750152</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688252</v>
+        <v>10.74790103688204</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430064</v>
+        <v>12.54229356430008</v>
       </c>
       <c r="N6" t="n">
-        <v>12.8742507541884</v>
+        <v>12.87425075418783</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104063</v>
+        <v>11.7774242510401</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277523309</v>
+        <v>9.452421277522886</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210767</v>
+        <v>6.318693299210485</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605677</v>
+        <v>3.073372125605541</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705524182</v>
+        <v>0.9194497705523771</v>
       </c>
       <c r="T6" t="n">
-        <v>0.199521685746794</v>
+        <v>0.1995216857467851</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564649</v>
+        <v>0.003256610757564503</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994949</v>
+        <v>0.04149954254994764</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259148</v>
+        <v>0.3689686601258984</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047572</v>
+        <v>1.248004425047517</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281429</v>
+        <v>2.934017658281298</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166857</v>
+        <v>4.821492307166642</v>
       </c>
       <c r="L7" t="n">
-        <v>6.169850171471582</v>
+        <v>6.169850171471307</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988899</v>
+        <v>6.505241928988609</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815848184</v>
+        <v>6.3505618158479</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705151045</v>
+        <v>5.865771705150783</v>
       </c>
       <c r="P7" t="n">
-        <v>5.01918103713207</v>
+        <v>5.019181037131847</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705316</v>
+        <v>3.475020785705161</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473183</v>
+        <v>1.8659703404731</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750285</v>
+        <v>0.7232238460749962</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588751</v>
+        <v>0.1773162272588671</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815429</v>
+        <v>0.002263611411815328</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.573949518200929</v>
+        <v>0.5739495182009228</v>
       </c>
       <c r="H8" t="n">
-        <v>5.877960503275266</v>
+        <v>5.877960503275202</v>
       </c>
       <c r="I8" t="n">
-        <v>22.12718880044134</v>
+        <v>22.1271888004411</v>
       </c>
       <c r="J8" t="n">
-        <v>48.71324792040615</v>
+        <v>48.71324792040561</v>
       </c>
       <c r="K8" t="n">
-        <v>73.00853102585148</v>
+        <v>73.00853102585069</v>
       </c>
       <c r="L8" t="n">
-        <v>90.57353859349318</v>
+        <v>90.57353859349219</v>
       </c>
       <c r="M8" t="n">
-        <v>100.780513337799</v>
+        <v>100.7805133377979</v>
       </c>
       <c r="N8" t="n">
-        <v>102.4112474063873</v>
+        <v>102.4112474063862</v>
       </c>
       <c r="O8" t="n">
-        <v>96.70403688477685</v>
+        <v>96.7040368847758</v>
       </c>
       <c r="P8" t="n">
-        <v>82.5346581541914</v>
+        <v>82.53465815419051</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.98009103362062</v>
+        <v>61.98009103361994</v>
       </c>
       <c r="R8" t="n">
-        <v>36.05335642268914</v>
+        <v>36.05335642268874</v>
       </c>
       <c r="S8" t="n">
-        <v>13.07887464600368</v>
+        <v>13.07887464600354</v>
       </c>
       <c r="T8" t="n">
-        <v>2.512464015924568</v>
+        <v>2.512464015924541</v>
       </c>
       <c r="U8" t="n">
-        <v>0.04591596145607432</v>
+        <v>0.04591596145607381</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3070900653279784</v>
+        <v>0.3070900653279751</v>
       </c>
       <c r="H9" t="n">
-        <v>2.965843525667582</v>
+        <v>2.965843525667549</v>
       </c>
       <c r="I9" t="n">
-        <v>10.57305707379224</v>
+        <v>10.57305707379213</v>
       </c>
       <c r="J9" t="n">
-        <v>29.01327674223678</v>
+        <v>29.01327674223646</v>
       </c>
       <c r="K9" t="n">
-        <v>49.58831111921133</v>
+        <v>49.58831111921079</v>
       </c>
       <c r="L9" t="n">
-        <v>66.67760387746304</v>
+        <v>66.67760387746232</v>
       </c>
       <c r="M9" t="n">
-        <v>77.80961874560225</v>
+        <v>77.8096187456014</v>
       </c>
       <c r="N9" t="n">
-        <v>79.86900782405174</v>
+        <v>79.86900782405085</v>
       </c>
       <c r="O9" t="n">
-        <v>73.06453848178441</v>
+        <v>73.06453848178361</v>
       </c>
       <c r="P9" t="n">
-        <v>58.64073361512951</v>
+        <v>58.64073361512886</v>
       </c>
       <c r="Q9" t="n">
-        <v>39.19977746186616</v>
+        <v>39.19977746186574</v>
       </c>
       <c r="R9" t="n">
-        <v>19.06652177536344</v>
+        <v>19.06652177536323</v>
       </c>
       <c r="S9" t="n">
-        <v>5.704063274842052</v>
+        <v>5.70406327484199</v>
       </c>
       <c r="T9" t="n">
-        <v>1.237788465071983</v>
+        <v>1.237788465071969</v>
       </c>
       <c r="U9" t="n">
-        <v>0.02020329377157754</v>
+        <v>0.02020329377157732</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2574539949470972</v>
+        <v>0.2574539949470944</v>
       </c>
       <c r="H10" t="n">
-        <v>2.289000064166012</v>
+        <v>2.289000064165986</v>
       </c>
       <c r="I10" t="n">
-        <v>7.742343775318163</v>
+        <v>7.742343775318078</v>
       </c>
       <c r="J10" t="n">
-        <v>18.20199744275977</v>
+        <v>18.20199744275957</v>
       </c>
       <c r="K10" t="n">
-        <v>29.91147323112638</v>
+        <v>29.91147323112605</v>
       </c>
       <c r="L10" t="n">
-        <v>38.27638757604389</v>
+        <v>38.27638757604348</v>
       </c>
       <c r="M10" t="n">
-        <v>40.35708395338906</v>
+        <v>40.35708395338862</v>
       </c>
       <c r="N10" t="n">
-        <v>39.39748269949537</v>
+        <v>39.39748269949494</v>
       </c>
       <c r="O10" t="n">
-        <v>36.38995194034063</v>
+        <v>36.38995194034023</v>
       </c>
       <c r="P10" t="n">
-        <v>31.13789044341982</v>
+        <v>31.13789044341948</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.55826134052466</v>
+        <v>21.55826134052442</v>
       </c>
       <c r="R10" t="n">
-        <v>11.57606780916675</v>
+        <v>11.57606780916662</v>
       </c>
       <c r="S10" t="n">
-        <v>4.486720984668956</v>
+        <v>4.486720984668907</v>
       </c>
       <c r="T10" t="n">
-        <v>1.100030705683052</v>
+        <v>1.100030705683039</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01404294517893259</v>
+        <v>0.01404294517893244</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
         <v>275.9770021735818</v>
@@ -31847,22 +31847,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>402.4253926747993</v>
       </c>
       <c r="N12" t="n">
-        <v>487.0792071670518</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S12" t="n">
         <v>54.25758340862161</v>
@@ -32075,10 +32075,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>634.2436048745725</v>
@@ -32090,13 +32090,13 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>571.4938338238237</v>
+        <v>523.3114972846978</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>420.7661933823239</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>740.1323715504302</v>
@@ -32330,13 +32330,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982454</v>
+        <v>421.2458431183454</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S18" t="n">
         <v>54.25758340862161</v>
@@ -32552,7 +32552,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745725</v>
@@ -32561,19 +32561,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>496.2241163658467</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S21" t="n">
         <v>54.25758340862161</v>
@@ -32789,7 +32789,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
         <v>634.2436048745725</v>
@@ -32798,19 +32798,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>507.4786487269579</v>
       </c>
       <c r="P24" t="n">
-        <v>344.3187317059969</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S24" t="n">
         <v>54.25758340862161</v>
@@ -33026,7 +33026,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745725</v>
@@ -33035,19 +33035,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O27" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>370.2780676825823</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S27" t="n">
         <v>54.25758340862161</v>
@@ -33260,19 +33260,19 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>726.5298133996307</v>
       </c>
       <c r="O30" t="n">
         <v>694.9967242426205</v>
@@ -33281,10 +33281,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862161</v>
@@ -33494,34 +33494,34 @@
         <v>28.21138103088191</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>326.4461114635448</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O33" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862161</v>
@@ -33734,13 +33734,13 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L36" t="n">
-        <v>420.7661933823238</v>
+        <v>221.6068726407401</v>
       </c>
       <c r="M36" t="n">
         <v>740.1323715504302</v>
@@ -33749,16 +33749,16 @@
         <v>759.7214730927639</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
         <v>557.7961431982454</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S36" t="n">
         <v>54.25758340862161</v>
@@ -33971,7 +33971,7 @@
         <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
@@ -33980,22 +33980,22 @@
         <v>634.2436048745725</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504302</v>
+        <v>475.5854869704598</v>
       </c>
       <c r="N39" t="n">
         <v>759.7214730927639</v>
       </c>
       <c r="O39" t="n">
-        <v>421.3049304638554</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S39" t="n">
         <v>54.25758340862161</v>
@@ -34211,10 +34211,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>348.1857632660254</v>
+        <v>384.3702179971013</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745725</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>740.1323715504302</v>
@@ -34226,13 +34226,13 @@
         <v>694.9967242426205</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S42" t="n">
         <v>54.25758340862161</v>
@@ -34448,7 +34448,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
         <v>634.2436048745725</v>
@@ -34457,19 +34457,19 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>176.7138123103445</v>
       </c>
       <c r="O45" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436714</v>
       </c>
       <c r="S45" t="n">
         <v>54.25758340862161</v>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194293</v>
       </c>
       <c r="L2" t="n">
-        <v>196.494535815018</v>
+        <v>196.4945358150182</v>
       </c>
       <c r="M2" t="n">
-        <v>235.4123198945113</v>
+        <v>235.4123198945115</v>
       </c>
       <c r="N2" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455866</v>
       </c>
       <c r="O2" t="n">
-        <v>166.2898937894759</v>
+        <v>166.289893789476</v>
       </c>
       <c r="P2" t="n">
-        <v>103.8696448668208</v>
+        <v>103.869644866821</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988702</v>
       </c>
       <c r="K3" t="n">
-        <v>79.07191193225252</v>
+        <v>134.6170405889699</v>
       </c>
       <c r="L3" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>263.2420339516666</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>263.2420339516669</v>
       </c>
       <c r="O3" t="n">
-        <v>263.0434990833253</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P3" t="n">
-        <v>193.9407825031299</v>
+        <v>193.94078250313</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>76.41420694903819</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34860,19 +34860,19 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178757</v>
       </c>
       <c r="M4" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082933</v>
       </c>
       <c r="N4" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507662</v>
       </c>
       <c r="O4" t="n">
-        <v>30.45089961919052</v>
+        <v>30.45089961919058</v>
       </c>
       <c r="P4" t="n">
-        <v>2.297740302025386</v>
+        <v>2.297740302025437</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34936,25 +34936,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194296</v>
+        <v>115.823957819429</v>
       </c>
       <c r="L5" t="n">
-        <v>196.4945358150185</v>
+        <v>196.4945358150179</v>
       </c>
       <c r="M5" t="n">
-        <v>235.4123198945119</v>
+        <v>235.4123198945112</v>
       </c>
       <c r="N5" t="n">
-        <v>224.441741845587</v>
+        <v>224.4417418455862</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894764</v>
+        <v>166.2898937894757</v>
       </c>
       <c r="P5" t="n">
-        <v>103.8696448668213</v>
+        <v>103.8696448668207</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.930118828988606</v>
       </c>
       <c r="K6" t="n">
-        <v>79.07191193225404</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604675</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>263.2420339516675</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>263.2420339516664</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833257</v>
+        <v>263.0434990833252</v>
       </c>
       <c r="P6" t="n">
-        <v>193.9407825031302</v>
+        <v>37.84316067718634</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903806</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178772</v>
+        <v>33.75987543178745</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082949</v>
+        <v>46.0891188908292</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507677</v>
+        <v>50.48273419507649</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919072</v>
+        <v>30.45089961919046</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025558</v>
+        <v>2.297740302025335</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.76395856579363</v>
+        <v>36.7639585657931</v>
       </c>
       <c r="K8" t="n">
-        <v>177.0640925520357</v>
+        <v>177.0640925520349</v>
       </c>
       <c r="L8" t="n">
-        <v>272.4683381739564</v>
+        <v>272.4683381739554</v>
       </c>
       <c r="M8" t="n">
-        <v>319.9478136033587</v>
+        <v>319.9478136033576</v>
       </c>
       <c r="N8" t="n">
-        <v>310.3451082217806</v>
+        <v>310.3451082217795</v>
       </c>
       <c r="O8" t="n">
-        <v>247.4060067258355</v>
+        <v>247.4060067258344</v>
       </c>
       <c r="P8" t="n">
-        <v>173.1003705704045</v>
+        <v>173.1003705704036</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.98939181907581</v>
+        <v>51.98939181907514</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>28.26668541597892</v>
+        <v>28.2666854159786</v>
       </c>
       <c r="K9" t="n">
-        <v>176.2121091574309</v>
+        <v>176.2121091574304</v>
       </c>
       <c r="L9" t="n">
-        <v>298.9635694010481</v>
+        <v>229.5317826503183</v>
       </c>
       <c r="M9" t="n">
-        <v>7.562658463242967</v>
+        <v>401.3250585280386</v>
       </c>
       <c r="N9" t="n">
-        <v>401.3250585280405</v>
+        <v>401.3250585280386</v>
       </c>
       <c r="O9" t="n">
-        <v>324.3306133140695</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>243.1290948407364</v>
+        <v>243.1290948407358</v>
       </c>
       <c r="Q9" t="n">
-        <v>109.2952911116937</v>
+        <v>109.2952911116933</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.641981405243527</v>
+        <v>7.6419814052432</v>
       </c>
       <c r="L10" t="n">
-        <v>65.86641283636004</v>
+        <v>65.86641283635961</v>
       </c>
       <c r="M10" t="n">
-        <v>79.94096091522965</v>
+        <v>79.94096091522921</v>
       </c>
       <c r="N10" t="n">
-        <v>83.52965507872396</v>
+        <v>83.52965507872352</v>
       </c>
       <c r="O10" t="n">
-        <v>60.9750798543803</v>
+        <v>60.97507985437991</v>
       </c>
       <c r="P10" t="n">
-        <v>28.41644970831331</v>
+        <v>28.41644970831297</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35428,10 +35428,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404117</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845839</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,7 +35483,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J12" t="n">
         <v>149.1393755069151</v>
@@ -35495,22 +35495,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>260.291358752781</v>
       </c>
       <c r="N12" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>83.37217397760983</v>
+        <v>83.37217397760992</v>
       </c>
       <c r="K13" t="n">
-        <v>265.8434912311551</v>
+        <v>265.8434912311552</v>
       </c>
       <c r="L13" t="n">
         <v>395.2708559913274</v>
       </c>
       <c r="M13" t="n">
-        <v>427.0564862552921</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N13" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878655</v>
       </c>
       <c r="O13" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P13" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q13" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714293</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607202</v>
+        <v>282.319066160721</v>
       </c>
       <c r="K14" t="n">
         <v>474.3741250380626</v>
@@ -35723,10 +35723,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>495.6892250946983</v>
@@ -35738,13 +35738,13 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>428.8975893793793</v>
+        <v>380.7152528402534</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.37217397760983</v>
+        <v>83.37217397760992</v>
       </c>
       <c r="K16" t="n">
-        <v>265.8434912311551</v>
+        <v>265.8434912311552</v>
       </c>
       <c r="L16" t="n">
         <v>395.2708559913274</v>
       </c>
       <c r="M16" t="n">
-        <v>427.0564862552921</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N16" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878655</v>
       </c>
       <c r="O16" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P16" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q16" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714293</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>282.2118136024497</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>597.9983376284119</v>
@@ -35978,13 +35978,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839152</v>
+        <v>287.2714357040151</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>83.37217397760983</v>
+        <v>83.37217397760992</v>
       </c>
       <c r="K19" t="n">
-        <v>265.8434912311551</v>
+        <v>265.8434912311552</v>
       </c>
       <c r="L19" t="n">
         <v>395.2708559913274</v>
       </c>
       <c r="M19" t="n">
-        <v>427.0564862552921</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N19" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878655</v>
       </c>
       <c r="O19" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P19" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q19" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714293</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845839</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946983</v>
@@ -36209,19 +36209,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>83.37217397760983</v>
+        <v>83.37217397760992</v>
       </c>
       <c r="K22" t="n">
-        <v>265.8434912311551</v>
+        <v>265.8434912311552</v>
       </c>
       <c r="L22" t="n">
         <v>395.2708559913274</v>
       </c>
       <c r="M22" t="n">
-        <v>427.0564862552921</v>
+        <v>427.0564862552922</v>
       </c>
       <c r="N22" t="n">
-        <v>422.4769647878654</v>
+        <v>422.4769647878655</v>
       </c>
       <c r="O22" t="n">
         <v>374.3220064275853</v>
       </c>
       <c r="P22" t="n">
-        <v>297.0573375600852</v>
+        <v>297.0573375600853</v>
       </c>
       <c r="Q22" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714293</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845848</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
         <v>495.6892250946983</v>
@@ -36446,19 +36446,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>364.8824042825134</v>
       </c>
       <c r="P24" t="n">
-        <v>210.3443242916667</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>83.37217397760983</v>
+        <v>83.3721739776098</v>
       </c>
       <c r="K25" t="n">
-        <v>265.8434912311551</v>
+        <v>265.843491231155</v>
       </c>
       <c r="L25" t="n">
-        <v>395.2708559913274</v>
+        <v>395.2708559913273</v>
       </c>
       <c r="M25" t="n">
         <v>427.0564862552921</v>
@@ -36534,7 +36534,7 @@
         <v>297.0573375600852</v>
       </c>
       <c r="Q25" t="n">
-        <v>122.4944069714292</v>
+        <v>122.4944069714291</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6317139898134</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K26" t="n">
         <v>474.3741250380626</v>
@@ -36616,7 +36616,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136723</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>210.3443242916664</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L27" t="n">
         <v>495.6892250946983</v>
@@ -36683,19 +36683,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>236.3036602682521</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066038</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K28" t="n">
-        <v>262.2512393642056</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L28" t="n">
-        <v>391.6786041243779</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N28" t="n">
-        <v>418.8847129209159</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.7297545606358</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931357</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044797</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36838,7 +36838,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M29" t="n">
-        <v>779.6000841311477</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N29" t="n">
         <v>744.73230092637</v>
@@ -36850,7 +36850,7 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695001</v>
       </c>
       <c r="R29" t="n">
         <v>127.3573607845842</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>595.1881013162974</v>
       </c>
       <c r="O30" t="n">
         <v>552.4004797981761</v>
@@ -36929,10 +36929,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,10 +37087,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q32" t="n">
-        <v>418.567381269501</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.049527853053121</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>184.3120775415265</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O33" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>333.6317139898116</v>
       </c>
       <c r="K35" t="n">
         <v>474.3741250380626</v>
@@ -37327,7 +37327,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,13 +37382,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L36" t="n">
-        <v>282.2118136024496</v>
+        <v>83.05249286086591</v>
       </c>
       <c r="M36" t="n">
         <v>597.9983376284119</v>
@@ -37397,16 +37397,16 @@
         <v>628.3797610094306</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>423.8217357839152</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K38" t="n">
         <v>474.3741250380626</v>
@@ -37552,7 +37552,7 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O38" t="n">
         <v>689.7596327870085</v>
@@ -37619,7 +37619,7 @@
         <v>1.049527853053121</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
@@ -37628,22 +37628,22 @@
         <v>495.6892250946983</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284119</v>
+        <v>333.4514530484415</v>
       </c>
       <c r="N39" t="n">
         <v>628.3797610094306</v>
       </c>
       <c r="O39" t="n">
-        <v>278.7086860194109</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,13 +37786,13 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M41" t="n">
-        <v>779.6000841311477</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N41" t="n">
         <v>744.73230092637</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P41" t="n">
         <v>553.844392613483</v>
@@ -37859,10 +37859,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>210.3443242916665</v>
+        <v>246.5287790227424</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946983</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>597.9983376284119</v>
@@ -37874,13 +37874,13 @@
         <v>552.4004797981761</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37935,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066066</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642059</v>
+        <v>262.2512393642057</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243782</v>
+        <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883429</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209162</v>
+        <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606361</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931361</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.90215510448</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38035,10 +38035,10 @@
         <v>553.844392613483</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>418.567381269501</v>
       </c>
       <c r="R44" t="n">
-        <v>178.6700086136723</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
         <v>495.6892250946983</v>
@@ -38105,19 +38105,19 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>45.37210022701122</v>
       </c>
       <c r="O45" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.68303457970742</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
